--- a/myFile2.xlsx
+++ b/myFile2.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" r:id="rId3" sheetId="1"/>
-    <sheet name="Kalkan" r:id="rId4" sheetId="2"/>
+    <sheet name="Pesha" r:id="rId3" sheetId="1"/>
+    <sheet name="Pesho" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -15,31 +15,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
-    <t>PersonId</t>
-  </si>
-  <si>
-    <t>PersonName</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>AddressId</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>HouseId</t>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>personId</t>
+  </si>
+  <si>
+    <t>personName</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>houseId</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>2</t>
@@ -63,19 +63,19 @@
     <t>Test</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Pesho</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>Kalkan</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Pesho</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Kalkan</t>
   </si>
   <si>
     <t>4</t>
@@ -89,13 +89,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -123,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -137,16 +143,6 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="2" max="2" width="14.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.69921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.96875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.5625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.61328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.1875" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
@@ -203,35 +199,6 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -247,49 +214,39 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="2" max="2" width="14.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.69921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.96875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.5625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.61328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="7.22265625" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -298,7 +255,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -310,27 +267,27 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -339,10 +296,39 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/myFile2.xlsx
+++ b/myFile2.xlsx
@@ -15,31 +15,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
-    <t>personId</t>
-  </si>
-  <si>
-    <t>personName</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>addressId</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>houseId</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>Person ID</t>
+  </si>
+  <si>
+    <t>Person Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address ID</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>House ID</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>2</t>
